--- a/mental_health_medical_data_test.xlsx
+++ b/mental_health_medical_data_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\DBLab_onehot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339DD6C2-3612-4053-BBA6-4ED71FAFDB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B825FE-DB97-4B6E-ACAD-673A093155EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>disease</t>
   </si>
@@ -31,31 +31,25 @@
     <t>department</t>
   </si>
   <si>
-    <t>강박 장애</t>
-  </si>
-  <si>
-    <t>['불안', '반복적인 동작', '의심']</t>
-  </si>
-  <si>
     <t>정신건강의학과</t>
   </si>
   <si>
     <t>경계성 인격장애</t>
   </si>
   <si>
-    <t>['의심', '약물남용', '대인관계 어려움', '조절할 수 없는 충동감', '자살의 위험', '우울', '망상']</t>
-  </si>
-  <si>
-    <t>신경성 폭식증</t>
-  </si>
-  <si>
-    <t>['체중증가', '복부 통증', '폭식', '구토']</t>
-  </si>
-  <si>
-    <t>['감각 과민', '대인관계 어려움', '감정 변화']</t>
-  </si>
-  <si>
-    <t>['반사회적 인격장애', '금단증상']</t>
+    <t>['의심']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ '의심', '약물남용']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ '의심', '약물남용', '대인관계 어려움', '조절할 수 없는 충동감', '자살의 위험', '우울', '망상']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ '의심', '약물남용', '대인관계 어려움', '조절할 수 없는 충동감']</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +425,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -454,57 +448,46 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
